--- a/public/archivos de testing/testing.xlsx
+++ b/public/archivos de testing/testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estan\OneDrive\Desktop\Proyecto-final-especializacion\final\public\archivos de testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50CCC81D-22E9-42F5-83AA-770BE84EE1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E99F3F-BA96-4897-AC30-468DC99B3842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{455C58AF-73CA-40A4-B411-9CCDEE4845F8}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{455C58AF-73CA-40A4-B411-9CCDEE4845F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de prueba" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="81">
   <si>
     <t>Id</t>
   </si>
@@ -209,6 +209,78 @@
   <si>
     <t>el boton solo debe funcionar si todos los campos se 
 completaron correctamente</t>
+  </si>
+  <si>
+    <t>Crear cuenta</t>
+  </si>
+  <si>
+    <t>Después de completar el formulario correctamente se debe crear mi cuenta y redirigirme al path "/login"</t>
+  </si>
+  <si>
+    <t>Ingresar al path "/create-account"</t>
+  </si>
+  <si>
+    <t>Clickear el botón "Crear cuenta" en la navbar de la landing page.</t>
+  </si>
+  <si>
+    <t>Que me redireccione a la página de crear cuenta.</t>
+  </si>
+  <si>
+    <t>Regresión</t>
+  </si>
+  <si>
+    <t>Completar todos los campos correctamente.</t>
+  </si>
+  <si>
+    <t>Que sean validados.</t>
+  </si>
+  <si>
+    <t>Clickear el botón "Crear cuenta".</t>
+  </si>
+  <si>
+    <t>Me permita continuar solamente si todos los campos se completaron correctamente.</t>
+  </si>
+  <si>
+    <t>Me redirige al login.</t>
+  </si>
+  <si>
+    <t>Que me redireccione al login.</t>
+  </si>
+  <si>
+    <t>Iniciar sesión</t>
+  </si>
+  <si>
+    <t>Después de completar el formulario correctamente se debe iniciar sesión.</t>
+  </si>
+  <si>
+    <t>Ingresar al path "/login"</t>
+  </si>
+  <si>
+    <t>Clickear el botón "Ingresar" en la navbar de la landing page.</t>
+  </si>
+  <si>
+    <t>Que me redireccione a la página de login.</t>
+  </si>
+  <si>
+    <t>Completar los campos email y contraseña correctamente.</t>
+  </si>
+  <si>
+    <t>Clickear el botón "Continuar".</t>
+  </si>
+  <si>
+    <t>Cerrar sesión</t>
+  </si>
+  <si>
+    <t>Después de clickear el botón "Cerrar sesión" me debe redigir al path "/"</t>
+  </si>
+  <si>
+    <t>Estar logueado</t>
+  </si>
+  <si>
+    <t>Clickear el botón "Cerrar sesión"</t>
+  </si>
+  <si>
+    <t>Se cierre sesión y me redireccione al path "/"</t>
   </si>
 </sst>
 </file>
@@ -362,23 +434,8 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -389,18 +446,129 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="44">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -967,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328BC580-6FEA-413E-B81F-01462D9B45B6}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:D34"/>
+      <selection activeCell="I43" sqref="I43:I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -986,71 +1154,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -1064,67 +1232,67 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="9" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="9" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="9" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -1138,64 +1306,64 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="9" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="9" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="9" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>3</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="7" t="s">
         <v>20</v>
       </c>
@@ -1207,73 +1375,73 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="9" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="9" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="9" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>4</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H15" s="7" t="s">
@@ -1287,69 +1455,69 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="9" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="9" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="9" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>5</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H19" s="7" t="s">
@@ -1363,69 +1531,69 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="9" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="9" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="9" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>6</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="4" t="s">
         <v>47</v>
       </c>
       <c r="H23" s="7" t="s">
@@ -1439,69 +1607,69 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="9" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="9" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="9" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>7</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="4" t="s">
         <v>53</v>
       </c>
       <c r="H27" s="7" t="s">
@@ -1515,69 +1683,69 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="9" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="9" t="s">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="9" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>8</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="4" t="s">
         <v>53</v>
       </c>
       <c r="H31" s="7" t="s">
@@ -1591,102 +1759,316 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="9" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="9" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="9" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>9</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>10</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>11</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
+  <mergeCells count="85">
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="H35:H38"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A3:A6"/>
@@ -1702,172 +2084,281 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="I31:I34"/>
   </mergeCells>
   <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+      <formula>"REVIEWED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+      <formula>"IN REVIEW"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+      <formula>"REVIEWED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+      <formula>"IN REVIEW"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+      <formula>"REVIEWED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+      <formula>"IN REVIEW"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
     <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="H15">
     <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="H15">
     <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="H15">
     <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="H19">
     <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="H19">
     <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="H19">
     <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="H19">
     <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H23">
     <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H23">
     <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H23">
     <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H23">
     <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H27">
     <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H27">
     <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H27">
     <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H27">
     <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
+  <conditionalFormatting sqref="H31">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
+  <conditionalFormatting sqref="H31">
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
+  <conditionalFormatting sqref="H31">
     <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
+  <conditionalFormatting sqref="H31">
     <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
+  <conditionalFormatting sqref="H35">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
+  <conditionalFormatting sqref="H35">
     <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
+  <conditionalFormatting sqref="H35">
     <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
+  <conditionalFormatting sqref="H35">
     <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="H43">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="H43">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="H43">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="H43">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="J3 J7 J11 J15 J19 J23 J27 J31" xr:uid="{04CF7CF5-A936-4828-AB3D-B5AC4235512F}">
+    <dataValidation type="list" allowBlank="1" sqref="J3 J7 J11 J15 J19 J23 J27 J31 J35 J39 J43" xr:uid="{04CF7CF5-A936-4828-AB3D-B5AC4235512F}">
       <formula1>"Smoke,Regresión"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H3 H7 H11 H15 H19 H23 H27 H31" xr:uid="{6C643EC8-0787-4008-8FB6-C5D7D5716A6E}">
+    <dataValidation type="list" allowBlank="1" sqref="H3 H7 H11 H15 H19 H23 H27 H31 H35 H39 H43" xr:uid="{6C643EC8-0787-4008-8FB6-C5D7D5716A6E}">
       <formula1>"TO DO,In Progress,In Review,Reviewed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/public/archivos de testing/testing.xlsx
+++ b/public/archivos de testing/testing.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estan\OneDrive\Desktop\Proyecto-final-especializacion\final\public\archivos de testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E99F3F-BA96-4897-AC30-468DC99B3842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED3CDB4-9167-4E4A-8635-615C34FE0913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{455C58AF-73CA-40A4-B411-9CCDEE4845F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{455C58AF-73CA-40A4-B411-9CCDEE4845F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de prueba" sheetId="1" r:id="rId1"/>
+    <sheet name="Ciclo 1 - Smoke Test" sheetId="2" r:id="rId2"/>
+    <sheet name="Ciclo 2 - Regresion" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="93">
   <si>
     <t>Id</t>
   </si>
@@ -281,13 +283,49 @@
   </si>
   <si>
     <t>Se cierre sesión y me redireccione al path "/"</t>
+  </si>
+  <si>
+    <t>Ejecución de casos de prueba - Ciclo 1</t>
+  </si>
+  <si>
+    <t>Fecha y Hora</t>
+  </si>
+  <si>
+    <t>Estado de Ejecución</t>
+  </si>
+  <si>
+    <t>Ejecutado por</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>Ejecución de casos de prueba - Ciclo 2</t>
+  </si>
+  <si>
+    <t>Responsive</t>
+  </si>
+  <si>
+    <t>Probar que todas las pantallas sean responsive</t>
+  </si>
+  <si>
+    <t>ingresar a la pagina</t>
+  </si>
+  <si>
+    <t>probar el modo responsive en las diferentes paginas</t>
+  </si>
+  <si>
+    <t>deberia verse bien en todos los dispostivos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +353,23 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -432,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -468,11 +523,176 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="63">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1135,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328BC580-6FEA-413E-B81F-01462D9B45B6}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43:I46"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2046,29 +2266,140 @@
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
     </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>12</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="H35:H38"/>
+  <mergeCells count="92">
+    <mergeCell ref="I47:I50"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="H47:H50"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A3:A6"/>
@@ -2084,284 +2415,606 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="H43:H46"/>
   </mergeCells>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="45" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="46" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="47" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="48" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="41" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="42" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="43" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="44" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="37" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="38" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="39" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="40" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="33" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="34" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="35" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="36" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="29" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="30" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="31" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="32" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="25" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="26" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="27" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="28" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="21" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="22" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="23" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="24" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="17" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="18" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="19" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="20" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="15" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"REVIEWED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"IN REVIEW"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="J3 J7 J11 J15 J19 J23 J27 J31 J35 J39 J43" xr:uid="{04CF7CF5-A936-4828-AB3D-B5AC4235512F}">
+    <dataValidation type="list" allowBlank="1" sqref="J3 J7 J11 J15 J19 J23 J27 J31 J35 J39 J43 J47" xr:uid="{04CF7CF5-A936-4828-AB3D-B5AC4235512F}">
       <formula1>"Smoke,Regresión"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H3 H7 H11 H15 H19 H23 H27 H31 H35 H39 H43" xr:uid="{6C643EC8-0787-4008-8FB6-C5D7D5716A6E}">
+    <dataValidation type="list" allowBlank="1" sqref="H3 H7 H11 H15 H19 H23 H27 H31 H35 H39 H43 H47" xr:uid="{6C643EC8-0787-4008-8FB6-C5D7D5716A6E}">
       <formula1>"TO DO,In Progress,In Review,Reviewed"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BDA17D-422A-4EDE-85C9-6E76BE29C348}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
+        <v>45527</v>
+      </c>
+      <c r="B4" s="18">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
+        <v>45527</v>
+      </c>
+      <c r="B5" s="18">
+        <v>2</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
+        <v>45527</v>
+      </c>
+      <c r="B6" s="21">
+        <v>3</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
+        <v>45523</v>
+      </c>
+      <c r="B7" s="21">
+        <v>4</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
+        <v>45523</v>
+      </c>
+      <c r="B8" s="21">
+        <v>5</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
+        <v>45523</v>
+      </c>
+      <c r="B9" s="21">
+        <v>6</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
+        <v>45523</v>
+      </c>
+      <c r="B10" s="21">
+        <v>7</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="20"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C4:C10">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C10">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C10">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+      <formula>"DEPRECATED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C10">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C10">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C10" xr:uid="{98599A04-DCD3-4301-8166-C91591A69F4C}">
+      <formula1>"TO DO,IN PROGRESS,DEPRECATED,FAIL,PASSED"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7131E811-891E-459F-8BA5-DF2089E7CB98}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
+        <v>45527</v>
+      </c>
+      <c r="B4" s="18">
+        <v>9</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
+        <v>45527</v>
+      </c>
+      <c r="B5" s="18">
+        <v>10</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
+        <v>45527</v>
+      </c>
+      <c r="B6" s="18">
+        <v>11</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
+        <v>45528</v>
+      </c>
+      <c r="B7" s="18">
+        <v>12</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="20"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C4:C6">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C6">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C6">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+      <formula>"DEPRECATED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C6">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C6">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"DEPRECATED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C7" xr:uid="{14F66130-C99F-497B-8C73-12B97998AB87}">
+      <formula1>"TO DO,IN PROGRESS,DEPRECATED,FAIL,PASSED"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/archivos de testing/testing.xlsx
+++ b/public/archivos de testing/testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estan\OneDrive\Desktop\Proyecto-final-especializacion\final\public\archivos de testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED3CDB4-9167-4E4A-8635-615C34FE0913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12C5CB1-C38D-4BCA-B9F5-C3616EF1685D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{455C58AF-73CA-40A4-B411-9CCDEE4845F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{455C58AF-73CA-40A4-B411-9CCDEE4845F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de prueba" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="119">
   <si>
     <t>Id</t>
   </si>
@@ -319,6 +319,84 @@
   </si>
   <si>
     <t>deberia verse bien en todos los dispostivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Ver importe</t>
+  </si>
+  <si>
+    <t>En el inicio del perfil del usuario ver el importe de dinero que tiene en la cuenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loguearse con una cuenta  </t>
+  </si>
+  <si>
+    <t>Ir a la pagina de inicio</t>
+  </si>
+  <si>
+    <t>Loguearse</t>
+  </si>
+  <si>
+    <t>Se deberia ver el monto en la cuenta del usuario</t>
+  </si>
+  <si>
+    <t>Se deberian ver los ultimos 10 movimientos en la cuenta del usuario</t>
+  </si>
+  <si>
+    <t>En el inicio del perfil, el usuario debe ver sus ultimos movimientos</t>
+  </si>
+  <si>
+    <t>Lista de actividad</t>
+  </si>
+  <si>
+    <t>Ver datos y actulizar alias</t>
+  </si>
+  <si>
+    <t>En el apartado tu perfil debo poder ver el cvu y el alias y poder modificar el alias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loguearse con una cuenta   </t>
+  </si>
+  <si>
+    <t>Loguerase</t>
+  </si>
+  <si>
+    <t>Ir a tu perfil</t>
+  </si>
+  <si>
+    <t>Actualizar alias</t>
+  </si>
+  <si>
+    <t>Deben poder verse el cvu y el alias del usuario y actualizar el alias</t>
+  </si>
+  <si>
+    <t>Lista de tarjetas</t>
+  </si>
+  <si>
+    <t>En el apartado tarjetas debo poder ver la lista de tarjetas del usuario con los ultimos 4 digitos, deben ser maximo 10</t>
+  </si>
+  <si>
+    <t>Ir a tarjetas</t>
+  </si>
+  <si>
+    <t>Ver la lista</t>
+  </si>
+  <si>
+    <t>Deben poder verse las tarjetas del usuario, deben ser maximo 10</t>
+  </si>
+  <si>
+    <t>Eliminar tarjeta</t>
+  </si>
+  <si>
+    <t>En la lista de tarjetas debo poder eliminar una tarjeta</t>
+  </si>
+  <si>
+    <t>Eliminar de la lista</t>
+  </si>
+  <si>
+    <t>De la lista de tarjetas el usuario debe poder eliminar las tarjetas, si no hay debe mostar un mensaje que no gay tarjetas asociadas</t>
   </si>
 </sst>
 </file>
@@ -507,6 +585,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -523,24 +614,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="117">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -584,6 +662,166 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFCE5CD"/>
           <bgColor rgb="FFFCE5CD"/>
         </patternFill>
@@ -616,6 +854,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FF93C47D"/>
           <bgColor rgb="FF93C47D"/>
         </patternFill>
@@ -624,6 +870,158 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
@@ -674,6 +1072,118 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF999999"/>
           <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1355,10 +1865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328BC580-6FEA-413E-B81F-01462D9B45B6}">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1367,45 +1877,45 @@
     <col min="3" max="3" width="19.5546875" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" customWidth="1"/>
     <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="46.6640625" customWidth="1"/>
+    <col min="7" max="7" width="104.21875" customWidth="1"/>
     <col min="8" max="8" width="21.109375" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1415,21 +1925,21 @@
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1441,69 +1951,69 @@
       <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="17" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1515,90 +2025,90 @@
       <c r="G7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="14">
         <v>3</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="17" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1608,15 +2118,15 @@
       <c r="G12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1624,35 +2134,35 @@
         <v>30</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="A15" s="14">
         <v>4</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1664,21 +2174,21 @@
       <c r="G15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1686,49 +2196,49 @@
         <v>35</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="A19" s="14">
         <v>5</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1740,21 +2250,21 @@
       <c r="G19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
@@ -1762,49 +2272,49 @@
         <v>41</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+      <c r="A23" s="14">
         <v>6</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="17" t="s">
         <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -1816,21 +2326,21 @@
       <c r="G23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="2" t="s">
         <v>13</v>
       </c>
@@ -1838,49 +2348,49 @@
         <v>46</v>
       </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+      <c r="A27" s="14">
         <v>7</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -1892,21 +2402,21 @@
       <c r="G27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="2" t="s">
         <v>13</v>
       </c>
@@ -1914,49 +2424,49 @@
         <v>52</v>
       </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+      <c r="A31" s="14">
         <v>8</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -1968,21 +2478,21 @@
       <c r="G31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="2" t="s">
         <v>13</v>
       </c>
@@ -1992,49 +2502,49 @@
       <c r="G32" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
     </row>
     <row r="35" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
+      <c r="A35" s="14">
         <v>9</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="17" t="s">
         <v>59</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -2046,21 +2556,21 @@
       <c r="G35" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="J35" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="2" t="s">
         <v>13</v>
       </c>
@@ -2070,15 +2580,15 @@
       <c r="G36" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
     </row>
     <row r="37" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="2" t="s">
         <v>14</v>
       </c>
@@ -2088,15 +2598,15 @@
       <c r="G37" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
       <c r="E38" s="2" t="s">
         <v>15</v>
       </c>
@@ -2106,21 +2616,21 @@
       <c r="G38" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
     </row>
     <row r="39" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+      <c r="A39" s="14">
         <v>10</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="17" t="s">
         <v>71</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -2132,21 +2642,21 @@
       <c r="G39" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
       <c r="E40" s="2" t="s">
         <v>13</v>
       </c>
@@ -2156,15 +2666,15 @@
       <c r="G40" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
     </row>
     <row r="41" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
       <c r="E41" s="2" t="s">
         <v>14</v>
       </c>
@@ -2174,35 +2684,35 @@
       <c r="G41" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
       <c r="E42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="6"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
     </row>
     <row r="43" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
+      <c r="A43" s="14">
         <v>11</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -2214,69 +2724,69 @@
       <c r="G43" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="J43" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
       <c r="E44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
+      <c r="A47" s="14">
         <v>12</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -2288,21 +2798,21 @@
       <c r="G47" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I47" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="J47" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
       <c r="E48" s="2" t="s">
         <v>13</v>
       </c>
@@ -2310,96 +2820,551 @@
         <v>91</v>
       </c>
       <c r="G48" s="4"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
       <c r="E49" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="6"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
       <c r="E50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="6"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="14">
+        <v>13</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G52" s="4"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="14">
+        <v>14</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="14">
+        <v>15</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="14">
+        <v>16</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G64" s="4"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+    </row>
+    <row r="66" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="14">
+        <v>17</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J67" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G69" s="6"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="3"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J71" s="14"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="5"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="5"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="I47:I50"/>
-    <mergeCell ref="J47:J50"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="H47:H50"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
+  <mergeCells count="134">
+    <mergeCell ref="I67:I70"/>
+    <mergeCell ref="J67:J70"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="I71:I74"/>
+    <mergeCell ref="J71:J74"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="I59:I62"/>
+    <mergeCell ref="J59:J62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="I51:I54"/>
+    <mergeCell ref="J51:J54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="I55:I58"/>
+    <mergeCell ref="J55:J58"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="H51:H54"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="H35:H38"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A3:A6"/>
@@ -2415,273 +3380,428 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="I47:I50"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="H47:H50"/>
   </mergeCells>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="62" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="69" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="61" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="70" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="60" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="71" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="59" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="72" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="58" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="65" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="57" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="66" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="56" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="67" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="55" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="68" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="54" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="61" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="53" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="62" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="52" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="63" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="51" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="64" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="50" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="57" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="49" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="58" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="48" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="59" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="47" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="60" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="46" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="53" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="45" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="54" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="44" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="55" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="43" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="56" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="42" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="49" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="41" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="50" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="40" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="51" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="39" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="52" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="38" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="45" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="37" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="46" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="36" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="47" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="35" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="48" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="34" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="41" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="33" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="42" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="32" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="43" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="31" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="44" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="37" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="38" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="28" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="39" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="40" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="33" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="34" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="35" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="36" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="29" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="30" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="31" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="32" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="25" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="26" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="27" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="28" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="cellIs" dxfId="48" priority="21" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="cellIs" dxfId="47" priority="22" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="cellIs" dxfId="46" priority="23" operator="equal">
+      <formula>"REVIEWED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="cellIs" dxfId="45" priority="24" operator="equal">
+      <formula>"IN REVIEW"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="cellIs" dxfId="44" priority="17" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="cellIs" dxfId="43" priority="18" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="cellIs" dxfId="42" priority="19" operator="equal">
+      <formula>"REVIEWED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="cellIs" dxfId="41" priority="20" operator="equal">
+      <formula>"IN REVIEW"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="cellIs" dxfId="40" priority="13" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="cellIs" dxfId="39" priority="14" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="cellIs" dxfId="38" priority="15" operator="equal">
+      <formula>"REVIEWED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="cellIs" dxfId="37" priority="16" operator="equal">
+      <formula>"IN REVIEW"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
+      <formula>"REVIEWED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="cellIs" dxfId="33" priority="12" operator="equal">
+      <formula>"IN REVIEW"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
+      <formula>"REVIEWED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
+      <formula>"IN REVIEW"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+      <formula>"REVIEWED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
+      <formula>"IN REVIEW"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="J3 J7 J11 J15 J19 J23 J27 J31 J35 J39 J43 J47" xr:uid="{04CF7CF5-A936-4828-AB3D-B5AC4235512F}">
+    <dataValidation type="list" allowBlank="1" sqref="J3 J7 J11 J15 J19 J23 J27 J31 J35 J39 J43 J47 J51 J55 J59 J63 J67 J71" xr:uid="{04CF7CF5-A936-4828-AB3D-B5AC4235512F}">
       <formula1>"Smoke,Regresión"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H3 H7 H11 H15 H19 H23 H27 H31 H35 H39 H43 H47" xr:uid="{6C643EC8-0787-4008-8FB6-C5D7D5716A6E}">
+    <dataValidation type="list" allowBlank="1" sqref="H3 H7 H11 H15 H19 H23 H27 H31 H35 H39 H43 H47 H51 H55 H59 H63 H67 H71" xr:uid="{6C643EC8-0787-4008-8FB6-C5D7D5716A6E}">
       <formula1>"TO DO,In Progress,In Review,Reviewed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2691,10 +3811,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BDA17D-422A-4EDE-85C9-6E76BE29C348}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2703,160 +3823,400 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+      <c r="A4" s="9">
         <v>45527</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+      <c r="A5" s="9">
         <v>45527</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="A6" s="9">
         <v>45527</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="13">
         <v>3</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+      <c r="A7" s="9">
         <v>45523</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="13">
         <v>4</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+      <c r="A8" s="9">
         <v>45523</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="13">
         <v>5</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+      <c r="A9" s="9">
         <v>45523</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="13">
         <v>6</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+      <c r="A10" s="9">
         <v>45523</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="13">
         <v>7</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>45523</v>
+      </c>
+      <c r="B11" s="13">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>45513</v>
+      </c>
+      <c r="B12" s="13">
+        <v>13</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>45513</v>
+      </c>
+      <c r="B13" s="13">
+        <v>14</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>45513</v>
+      </c>
+      <c r="B14" s="13">
+        <v>15</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>45513</v>
+      </c>
+      <c r="B15" s="13">
+        <v>16</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>45513</v>
+      </c>
+      <c r="B16" s="13">
+        <v>17</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C10">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="31" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C10">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="32" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C10">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="33" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C10">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="34" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C10">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="35" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="53" priority="26" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="52" priority="27" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="51" priority="28" operator="equal">
+      <formula>"DEPRECATED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="50" priority="29" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="49" priority="30" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>"DEPRECATED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"DEPRECATED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"DEPRECATED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"DEPRECATED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"DEPRECATED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>"PASSED"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C10" xr:uid="{98599A04-DCD3-4301-8166-C91591A69F4C}">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C16" xr:uid="{98599A04-DCD3-4301-8166-C91591A69F4C}">
       <formula1>"TO DO,IN PROGRESS,DEPRECATED,FAIL,PASSED"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2868,7 +4228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7131E811-891E-459F-8BA5-DF2089E7CB98}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2878,135 +4238,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+      <c r="A4" s="9">
         <v>45527</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="10">
         <v>9</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+      <c r="A5" s="9">
         <v>45527</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="10">
         <v>10</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="A6" s="9">
         <v>45527</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="10">
         <v>11</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+      <c r="A7" s="9">
         <v>45528</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="10">
         <v>12</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C6">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="6" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C6">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="7" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C6">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="8" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C6">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C6">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="10" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="4" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="5" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/public/archivos de testing/testing.xlsx
+++ b/public/archivos de testing/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estan\OneDrive\Desktop\Proyecto-final-especializacion\final\public\archivos de testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12C5CB1-C38D-4BCA-B9F5-C3616EF1685D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE00F11-0AE0-4494-9D49-EDB3B2D0D514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{455C58AF-73CA-40A4-B411-9CCDEE4845F8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="144">
   <si>
     <t>Id</t>
   </si>
@@ -321,9 +321,6 @@
     <t>deberia verse bien en todos los dispostivos</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>Ver importe</t>
   </si>
   <si>
@@ -397,6 +394,84 @@
   </si>
   <si>
     <t>De la lista de tarjetas el usuario debe poder eliminar las tarjetas, si no hay debe mostar un mensaje que no gay tarjetas asociadas</t>
+  </si>
+  <si>
+    <t>Debo poder ingresar dinero de una tarjeta a la cuenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  registrar una tarjeta</t>
+  </si>
+  <si>
+    <t>Ir a cagar dinero</t>
+  </si>
+  <si>
+    <t>Seleccionar tarjeta</t>
+  </si>
+  <si>
+    <t>Elegir monto</t>
+  </si>
+  <si>
+    <t>Al cargar dinero debo ver un cimprobante con el monto agregado y los ultimos 4 digitos de la tarjeta usada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Ingreso de dinero con tarjeta</t>
+  </si>
+  <si>
+    <t>Ingresar dinero de una cuenta externa</t>
+  </si>
+  <si>
+    <t>Debo poder copiar tanto CVU como alias para pasarlo y que me transfieran</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iniciar sesion</t>
+  </si>
+  <si>
+    <t>Ir a cargar dinero</t>
+  </si>
+  <si>
+    <t>ir a tarnsferencia bancaria</t>
+  </si>
+  <si>
+    <t>Debo poder copiar los datos bancarios del usuario o editar el alias</t>
+  </si>
+  <si>
+    <t>Filtro mi actividad</t>
+  </si>
+  <si>
+    <t>Debo poder filtrar mi actividad por fecha (hoy, ayer, etc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iniciar sesion </t>
+  </si>
+  <si>
+    <t>clickear en actividad</t>
+  </si>
+  <si>
+    <t>Ir a la lista de actividad</t>
+  </si>
+  <si>
+    <t>clickear filtros y ver</t>
+  </si>
+  <si>
+    <t>Debo poder filtrar por los filtros seleccionados</t>
+  </si>
+  <si>
+    <t>Detalle de la operación</t>
+  </si>
+  <si>
+    <t>Debo poder ver el detalle de la operación al clickear el mismo en la lista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hacer una transaccion o deposito </t>
+  </si>
+  <si>
+    <t>clickear una opcion</t>
+  </si>
+  <si>
+    <t>Debo poder ver el detalle de la operación</t>
   </si>
 </sst>
 </file>
@@ -618,7 +693,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="117">
+  <dxfs count="137">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -630,6 +713,158 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
@@ -822,6 +1057,166 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFCE5CD"/>
           <bgColor rgb="FFFCE5CD"/>
         </patternFill>
@@ -992,166 +1387,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF93C47D"/>
           <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA2C4C9"/>
-          <bgColor rgb="FFA2C4C9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF93C47D"/>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA2C4C9"/>
-          <bgColor rgb="FFA2C4C9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF93C47D"/>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA2C4C9"/>
-          <bgColor rgb="FFA2C4C9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF93C47D"/>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA2C4C9"/>
-          <bgColor rgb="FFA2C4C9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF93C47D"/>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1865,10 +2100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328BC580-6FEA-413E-B81F-01462D9B45B6}">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71:B74"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87:A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2857,22 +3092,22 @@
         <v>13</v>
       </c>
       <c r="B51" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="D51" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F51" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="H51" s="14" t="s">
         <v>20</v>
@@ -2893,7 +3128,7 @@
         <v>13</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="15"/>
@@ -2933,22 +3168,22 @@
         <v>14</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H55" s="14" t="s">
         <v>20</v>
@@ -2969,7 +3204,7 @@
         <v>13</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="15"/>
@@ -3009,22 +3244,22 @@
         <v>15</v>
       </c>
       <c r="B59" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="D59" s="17" t="s">
         <v>104</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>105</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H59" s="14" t="s">
         <v>20</v>
@@ -3045,7 +3280,7 @@
         <v>13</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="15"/>
@@ -3061,7 +3296,7 @@
         <v>14</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="15"/>
@@ -3087,22 +3322,22 @@
         <v>16</v>
       </c>
       <c r="B63" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="17" t="s">
-        <v>111</v>
-      </c>
       <c r="D63" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H63" s="14" t="s">
         <v>20</v>
@@ -3123,7 +3358,7 @@
         <v>13</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="15"/>
@@ -3139,7 +3374,7 @@
         <v>14</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="15"/>
@@ -3165,22 +3400,22 @@
         <v>17</v>
       </c>
       <c r="B67" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C67" s="17" t="s">
-        <v>116</v>
-      </c>
       <c r="D67" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H67" s="14" t="s">
         <v>20</v>
@@ -3201,7 +3436,7 @@
         <v>13</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="15"/>
@@ -3217,7 +3452,7 @@
         <v>14</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G69" s="6"/>
       <c r="H69" s="15"/>
@@ -3239,24 +3474,36 @@
       <c r="J70" s="16"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
+      <c r="A71" s="14">
+        <v>18</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>118</v>
+      </c>
       <c r="D71" s="17" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="4"/>
+      <c r="F71" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="H71" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I71" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J71" s="14"/>
+      <c r="J71" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="15"/>
@@ -3266,7 +3513,9 @@
       <c r="E72" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="5"/>
+      <c r="F72" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="G72" s="4"/>
       <c r="H72" s="15"/>
       <c r="I72" s="15"/>
@@ -3280,7 +3529,9 @@
       <c r="E73" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F73" s="5"/>
+      <c r="F73" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="G73" s="6"/>
       <c r="H73" s="15"/>
       <c r="I73" s="15"/>
@@ -3294,56 +3545,484 @@
       <c r="E74" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F74" s="2"/>
+      <c r="F74" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G74" s="6"/>
       <c r="H74" s="16"/>
       <c r="I74" s="16"/>
       <c r="J74" s="16"/>
     </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="14">
+        <v>19</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J75" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+    </row>
+    <row r="77" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G77" s="6"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="14">
+        <v>20</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H79" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G80" s="4"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G81" s="6"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="14">
+        <v>21</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J83" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="15"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G84" s="4"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G85" s="6"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="16"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="14">
+        <v>18</v>
+      </c>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="3"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J87" s="14"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="15"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="5"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="15"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="5"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="2"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="16"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="14">
+        <v>18</v>
+      </c>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="3"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I91" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J91" s="14"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" s="15"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="5"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="15"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="5"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="2"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="134">
-    <mergeCell ref="I67:I70"/>
-    <mergeCell ref="J67:J70"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="I71:I74"/>
-    <mergeCell ref="J71:J74"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="I59:I62"/>
-    <mergeCell ref="J59:J62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="I51:I54"/>
-    <mergeCell ref="J51:J54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="I55:I58"/>
-    <mergeCell ref="J55:J58"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="H51:H54"/>
+  <mergeCells count="169">
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="H91:H94"/>
+    <mergeCell ref="I91:I94"/>
+    <mergeCell ref="J91:J94"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="C83:C86"/>
+    <mergeCell ref="D83:D86"/>
+    <mergeCell ref="H83:H86"/>
+    <mergeCell ref="I83:I86"/>
+    <mergeCell ref="J83:J86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="H87:H90"/>
+    <mergeCell ref="I87:I90"/>
+    <mergeCell ref="J87:J90"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="H75:H78"/>
+    <mergeCell ref="I75:I78"/>
+    <mergeCell ref="J75:J78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="H79:H82"/>
+    <mergeCell ref="I79:I82"/>
+    <mergeCell ref="J79:J82"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="I47:I50"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="H47:H50"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="I43:I46"/>
     <mergeCell ref="J43:J46"/>
     <mergeCell ref="A43:A46"/>
@@ -3365,443 +4044,514 @@
     <mergeCell ref="C35:C38"/>
     <mergeCell ref="D35:D38"/>
     <mergeCell ref="H35:H38"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="I47:I50"/>
-    <mergeCell ref="J47:J50"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="H47:H50"/>
+    <mergeCell ref="I51:I54"/>
+    <mergeCell ref="J51:J54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="I55:I58"/>
+    <mergeCell ref="J55:J58"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="H51:H54"/>
+    <mergeCell ref="I59:I62"/>
+    <mergeCell ref="J59:J62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="I67:I70"/>
+    <mergeCell ref="J67:J70"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="I71:I74"/>
+    <mergeCell ref="J71:J74"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="H67:H70"/>
   </mergeCells>
   <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="136" priority="89" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="135" priority="90" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="134" priority="91" operator="equal">
+      <formula>"REVIEWED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="133" priority="92" operator="equal">
+      <formula>"IN REVIEW"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="132" priority="85" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="131" priority="86" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="130" priority="87" operator="equal">
+      <formula>"REVIEWED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="129" priority="88" operator="equal">
+      <formula>"IN REVIEW"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="128" priority="81" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="127" priority="82" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="126" priority="83" operator="equal">
+      <formula>"REVIEWED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="125" priority="84" operator="equal">
+      <formula>"IN REVIEW"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="124" priority="77" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="123" priority="78" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="122" priority="79" operator="equal">
+      <formula>"REVIEWED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="121" priority="80" operator="equal">
+      <formula>"IN REVIEW"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="cellIs" dxfId="120" priority="73" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="cellIs" dxfId="119" priority="74" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="cellIs" dxfId="118" priority="75" operator="equal">
+      <formula>"REVIEWED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="cellIs" dxfId="117" priority="76" operator="equal">
+      <formula>"IN REVIEW"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
     <cfRule type="cellIs" dxfId="116" priority="69" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="H23">
     <cfRule type="cellIs" dxfId="115" priority="70" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="H23">
     <cfRule type="cellIs" dxfId="114" priority="71" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="H23">
     <cfRule type="cellIs" dxfId="113" priority="72" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="H27">
     <cfRule type="cellIs" dxfId="112" priority="65" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="H27">
     <cfRule type="cellIs" dxfId="111" priority="66" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="H27">
     <cfRule type="cellIs" dxfId="110" priority="67" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="H27">
     <cfRule type="cellIs" dxfId="109" priority="68" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H31">
     <cfRule type="cellIs" dxfId="108" priority="61" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H31">
     <cfRule type="cellIs" dxfId="107" priority="62" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H31">
     <cfRule type="cellIs" dxfId="106" priority="63" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H31">
     <cfRule type="cellIs" dxfId="105" priority="64" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H35">
     <cfRule type="cellIs" dxfId="104" priority="57" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H35">
     <cfRule type="cellIs" dxfId="103" priority="58" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H35">
     <cfRule type="cellIs" dxfId="102" priority="59" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H35">
     <cfRule type="cellIs" dxfId="101" priority="60" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="100" priority="53" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="99" priority="54" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="98" priority="55" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="97" priority="56" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
+  <conditionalFormatting sqref="H43">
     <cfRule type="cellIs" dxfId="96" priority="49" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
+  <conditionalFormatting sqref="H43">
     <cfRule type="cellIs" dxfId="95" priority="50" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
+  <conditionalFormatting sqref="H43">
     <cfRule type="cellIs" dxfId="94" priority="51" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
+  <conditionalFormatting sqref="H43">
     <cfRule type="cellIs" dxfId="93" priority="52" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H47">
     <cfRule type="cellIs" dxfId="92" priority="45" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H47">
     <cfRule type="cellIs" dxfId="91" priority="46" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H47">
     <cfRule type="cellIs" dxfId="90" priority="47" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H47">
     <cfRule type="cellIs" dxfId="89" priority="48" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="88" priority="41" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="87" priority="42" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="86" priority="43" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="85" priority="44" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
+  <conditionalFormatting sqref="H55">
     <cfRule type="cellIs" dxfId="84" priority="37" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
+  <conditionalFormatting sqref="H55">
     <cfRule type="cellIs" dxfId="83" priority="38" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
+  <conditionalFormatting sqref="H55">
     <cfRule type="cellIs" dxfId="82" priority="39" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
+  <conditionalFormatting sqref="H55">
     <cfRule type="cellIs" dxfId="81" priority="40" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H59">
     <cfRule type="cellIs" dxfId="80" priority="33" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H59">
     <cfRule type="cellIs" dxfId="79" priority="34" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H59">
     <cfRule type="cellIs" dxfId="78" priority="35" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H59">
     <cfRule type="cellIs" dxfId="77" priority="36" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="H63">
     <cfRule type="cellIs" dxfId="76" priority="29" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="H63">
     <cfRule type="cellIs" dxfId="75" priority="30" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="H63">
     <cfRule type="cellIs" dxfId="74" priority="31" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="H63">
     <cfRule type="cellIs" dxfId="73" priority="32" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
+  <conditionalFormatting sqref="H67">
     <cfRule type="cellIs" dxfId="72" priority="25" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
+  <conditionalFormatting sqref="H67">
     <cfRule type="cellIs" dxfId="71" priority="26" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
+  <conditionalFormatting sqref="H67">
     <cfRule type="cellIs" dxfId="70" priority="27" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
+  <conditionalFormatting sqref="H67">
     <cfRule type="cellIs" dxfId="69" priority="28" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="48" priority="21" operator="equal">
+  <conditionalFormatting sqref="H71">
+    <cfRule type="cellIs" dxfId="68" priority="21" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="47" priority="22" operator="equal">
+  <conditionalFormatting sqref="H71">
+    <cfRule type="cellIs" dxfId="67" priority="22" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="46" priority="23" operator="equal">
+  <conditionalFormatting sqref="H71">
+    <cfRule type="cellIs" dxfId="66" priority="23" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="45" priority="24" operator="equal">
+  <conditionalFormatting sqref="H71">
+    <cfRule type="cellIs" dxfId="65" priority="24" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="44" priority="17" operator="equal">
+  <conditionalFormatting sqref="H75">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="43" priority="18" operator="equal">
+  <conditionalFormatting sqref="H75">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="42" priority="19" operator="equal">
+  <conditionalFormatting sqref="H75">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="41" priority="20" operator="equal">
+  <conditionalFormatting sqref="H75">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="40" priority="13" operator="equal">
+  <conditionalFormatting sqref="H79">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="39" priority="14" operator="equal">
+  <conditionalFormatting sqref="H79">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="38" priority="15" operator="equal">
+  <conditionalFormatting sqref="H79">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="37" priority="16" operator="equal">
+  <conditionalFormatting sqref="H79">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
+  <conditionalFormatting sqref="H83">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
+  <conditionalFormatting sqref="H83">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
+  <conditionalFormatting sqref="H83">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="33" priority="12" operator="equal">
+  <conditionalFormatting sqref="H83">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
+  <conditionalFormatting sqref="H87">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
+  <conditionalFormatting sqref="H87">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
+  <conditionalFormatting sqref="H87">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
+  <conditionalFormatting sqref="H87">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+  <conditionalFormatting sqref="H91">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+  <conditionalFormatting sqref="H91">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+  <conditionalFormatting sqref="H91">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
+  <conditionalFormatting sqref="H91">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="J3 J7 J11 J15 J19 J23 J27 J31 J35 J39 J43 J47 J51 J55 J59 J63 J67 J71" xr:uid="{04CF7CF5-A936-4828-AB3D-B5AC4235512F}">
+    <dataValidation type="list" allowBlank="1" sqref="J3 J7 J11 J15 J19 J23 J27 J31 J35 J39 J43 J47 J51 J55 J59 J63 J67 J71 J75 J79 J83 J87 J91" xr:uid="{04CF7CF5-A936-4828-AB3D-B5AC4235512F}">
       <formula1>"Smoke,Regresión"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H3 H7 H11 H15 H19 H23 H27 H31 H35 H39 H43 H47 H51 H55 H59 H63 H67 H71" xr:uid="{6C643EC8-0787-4008-8FB6-C5D7D5716A6E}">
+    <dataValidation type="list" allowBlank="1" sqref="H3 H7 H11 H15 H19 H23 H27 H31 H35 H39 H43 H47 H51 H55 H59 H63 H67 H71 H75 H79 H83 H87 H91" xr:uid="{6C643EC8-0787-4008-8FB6-C5D7D5716A6E}">
       <formula1>"TO DO,In Progress,In Review,Reviewed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4041,177 +4791,177 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C10">
-    <cfRule type="cellIs" dxfId="68" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="31" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C10">
-    <cfRule type="cellIs" dxfId="67" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="32" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C10">
-    <cfRule type="cellIs" dxfId="66" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="33" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C10">
-    <cfRule type="cellIs" dxfId="65" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="34" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C10">
-    <cfRule type="cellIs" dxfId="64" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="35" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="53" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="26" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="52" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="27" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="51" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="28" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="50" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="29" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="49" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="30" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="21" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="22" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="23" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="24" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="25" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="16" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="17" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="18" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="19" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="20" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="11" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="12" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="13" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="14" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="15" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4321,52 +5071,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C6">
-    <cfRule type="cellIs" dxfId="63" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C6">
-    <cfRule type="cellIs" dxfId="62" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C6">
-    <cfRule type="cellIs" dxfId="61" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="8" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C6">
-    <cfRule type="cellIs" dxfId="60" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C6">
-    <cfRule type="cellIs" dxfId="59" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="55" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="54" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/public/archivos de testing/testing.xlsx
+++ b/public/archivos de testing/testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estan\OneDrive\Desktop\Proyecto-final-especializacion\final\public\archivos de testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE00F11-0AE0-4494-9D49-EDB3B2D0D514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC11FD6F-7D4B-43FB-8C29-E1F20CEC0BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{455C58AF-73CA-40A4-B411-9CCDEE4845F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{455C58AF-73CA-40A4-B411-9CCDEE4845F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de prueba" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="162">
   <si>
     <t>Id</t>
   </si>
@@ -414,9 +414,6 @@
     <t>Al cargar dinero debo ver un cimprobante con el monto agregado y los ultimos 4 digitos de la tarjeta usada</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Ingreso de dinero con tarjeta</t>
   </si>
   <si>
@@ -472,13 +469,70 @@
   </si>
   <si>
     <t>Debo poder ver el detalle de la operación</t>
+  </si>
+  <si>
+    <t>lista de servicios</t>
+  </si>
+  <si>
+    <t>En servicios debo poder ver la lista de servicios disponibles</t>
+  </si>
+  <si>
+    <t>Ir al apartado servicios</t>
+  </si>
+  <si>
+    <t>Debo poder ver la lista de servicios dispónibles</t>
+  </si>
+  <si>
+    <t>buscador lista de servicios</t>
+  </si>
+  <si>
+    <t>Debo poder filtrar por busqueda los servicios</t>
+  </si>
+  <si>
+    <t>usar la barra de busqueda</t>
+  </si>
+  <si>
+    <t>debo poder escribir y filtrar las opciones</t>
+  </si>
+  <si>
+    <t>Smike</t>
+  </si>
+  <si>
+    <t>Numero de cuenta</t>
+  </si>
+  <si>
+    <t>Debo poder poner un numero de cuenta valido para pagar el servicio</t>
+  </si>
+  <si>
+    <t>seleccionar un servicio de la lista de servicios</t>
+  </si>
+  <si>
+    <t>debo poder poner un numero de cuenta valido para avanzar</t>
+  </si>
+  <si>
+    <t>Pago de servicos</t>
+  </si>
+  <si>
+    <t>debo poder pagar un servicio con una tarjeta vinculada</t>
+  </si>
+  <si>
+    <t>ir a servicios</t>
+  </si>
+  <si>
+    <t>pagar con una tarjeta</t>
+  </si>
+  <si>
+    <t>Al seleccionar la tarjeta debo poder pagar el servicio</t>
+  </si>
+  <si>
+    <t>Regresion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,6 +577,12 @@
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -640,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -689,11 +749,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="137">
+  <dxfs count="149">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -793,6 +856,366 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF93C47D"/>
+          <bgColor rgb="FF93C47D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA2C4C9"/>
+          <bgColor rgb="FFA2C4C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFCE5CD"/>
           <bgColor rgb="FFFCE5CD"/>
         </patternFill>
@@ -857,6 +1280,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FF93C47D"/>
           <bgColor rgb="FF93C47D"/>
         </patternFill>
@@ -865,22 +1296,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFFFF2CC"/>
           <bgColor rgb="FFFFF2CC"/>
         </patternFill>
@@ -897,6 +1312,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FF93C47D"/>
           <bgColor rgb="FF93C47D"/>
         </patternFill>
@@ -905,22 +1328,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFFFF2CC"/>
           <bgColor rgb="FFFFF2CC"/>
         </patternFill>
@@ -937,264 +1344,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FF93C47D"/>
           <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA2C4C9"/>
-          <bgColor rgb="FFA2C4C9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF93C47D"/>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA2C4C9"/>
-          <bgColor rgb="FFA2C4C9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF93C47D"/>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA2C4C9"/>
-          <bgColor rgb="FFA2C4C9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF93C47D"/>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA2C4C9"/>
-          <bgColor rgb="FFA2C4C9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF93C47D"/>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA2C4C9"/>
-          <bgColor rgb="FFA2C4C9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF93C47D"/>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA2C4C9"/>
-          <bgColor rgb="FFA2C4C9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF93C47D"/>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor rgb="FF999999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2100,10 +2259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328BC580-6FEA-413E-B81F-01462D9B45B6}">
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:A90"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3192,7 +3351,7 @@
         <v>21</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -3346,7 +3505,7 @@
         <v>21</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -3424,7 +3583,7 @@
         <v>21</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -3478,7 +3637,7 @@
         <v>18</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>118</v>
@@ -3502,7 +3661,7 @@
         <v>21</v>
       </c>
       <c r="J71" s="14" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -3558,13 +3717,13 @@
         <v>19</v>
       </c>
       <c r="B75" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="D75" s="17" t="s">
         <v>127</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>128</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>11</v>
@@ -3573,7 +3732,7 @@
         <v>97</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H75" s="14" t="s">
         <v>20</v>
@@ -3594,7 +3753,7 @@
         <v>13</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="15"/>
@@ -3610,7 +3769,7 @@
         <v>14</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="15"/>
@@ -3636,22 +3795,22 @@
         <v>20</v>
       </c>
       <c r="B79" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C79" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="D79" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H79" s="14" t="s">
         <v>20</v>
@@ -3660,7 +3819,7 @@
         <v>21</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -3672,7 +3831,7 @@
         <v>13</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="15"/>
@@ -3688,7 +3847,7 @@
         <v>14</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G81" s="6"/>
       <c r="H81" s="15"/>
@@ -3714,13 +3873,13 @@
         <v>21</v>
       </c>
       <c r="B83" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C83" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="D83" s="17" t="s">
         <v>140</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>141</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>11</v>
@@ -3729,7 +3888,7 @@
         <v>97</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H83" s="14" t="s">
         <v>20</v>
@@ -3750,7 +3909,7 @@
         <v>13</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="15"/>
@@ -3766,7 +3925,7 @@
         <v>14</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G85" s="6"/>
       <c r="H85" s="15"/>
@@ -3789,25 +3948,35 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="14">
-        <v>18</v>
-      </c>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="D87" s="17" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F87" s="3"/>
-      <c r="G87" s="4"/>
+      <c r="F87" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="H87" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I87" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J87" s="14"/>
+      <c r="J87" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="15"/>
@@ -3817,7 +3986,9 @@
       <c r="E88" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="5"/>
+      <c r="F88" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="G88" s="4"/>
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
@@ -3853,25 +4024,35 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="14">
-        <v>18</v>
-      </c>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>148</v>
+      </c>
       <c r="D91" s="17" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F91" s="3"/>
-      <c r="G91" s="4"/>
+      <c r="F91" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="H91" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I91" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J91" s="14"/>
+      <c r="J91" s="14" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
@@ -3881,13 +4062,15 @@
       <c r="E92" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F92" s="5"/>
+      <c r="F92" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="G92" s="4"/>
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
       <c r="J92" s="15"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -3895,7 +4078,9 @@
       <c r="E93" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F93" s="5"/>
+      <c r="F93" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="G93" s="6"/>
       <c r="H93" s="15"/>
       <c r="I93" s="15"/>
@@ -3915,8 +4100,381 @@
       <c r="I94" s="16"/>
       <c r="J94" s="16"/>
     </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="14">
+        <v>24</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H95" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I95" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J95" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A96" s="15"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G96" s="4"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" s="15"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="5"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="15"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="16"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" s="14">
+        <v>25</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H99" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I99" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J99" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" s="15"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G100" s="4"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="15"/>
+    </row>
+    <row r="101" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A101" s="15"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G101" s="6"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="15"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G102" s="6"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="16"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" s="14"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="14"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" s="15"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="15"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="15"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="15"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" s="16"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="169">
+  <mergeCells count="190">
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="H103:H106"/>
+    <mergeCell ref="I103:I106"/>
+    <mergeCell ref="J103:J106"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="H95:H98"/>
+    <mergeCell ref="I95:I98"/>
+    <mergeCell ref="J95:J98"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="C99:C102"/>
+    <mergeCell ref="D99:D102"/>
+    <mergeCell ref="H99:H102"/>
+    <mergeCell ref="I99:I102"/>
+    <mergeCell ref="J99:J102"/>
+    <mergeCell ref="I67:I70"/>
+    <mergeCell ref="J67:J70"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="I71:I74"/>
+    <mergeCell ref="J71:J74"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="I59:I62"/>
+    <mergeCell ref="J59:J62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="I51:I54"/>
+    <mergeCell ref="J51:J54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="I55:I58"/>
+    <mergeCell ref="J55:J58"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="H51:H54"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="I47:I50"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="H47:H50"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="H75:H78"/>
+    <mergeCell ref="I75:I78"/>
+    <mergeCell ref="J75:J78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="H79:H82"/>
+    <mergeCell ref="I79:I82"/>
+    <mergeCell ref="J79:J82"/>
     <mergeCell ref="A91:A94"/>
     <mergeCell ref="B91:B94"/>
     <mergeCell ref="C91:C94"/>
@@ -3938,620 +4496,532 @@
     <mergeCell ref="H87:H90"/>
     <mergeCell ref="I87:I90"/>
     <mergeCell ref="J87:J90"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="H75:H78"/>
-    <mergeCell ref="I75:I78"/>
-    <mergeCell ref="J75:J78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="D79:D82"/>
-    <mergeCell ref="H79:H82"/>
-    <mergeCell ref="I79:I82"/>
-    <mergeCell ref="J79:J82"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="I47:I50"/>
-    <mergeCell ref="J47:J50"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="H47:H50"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="I51:I54"/>
-    <mergeCell ref="J51:J54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="I55:I58"/>
-    <mergeCell ref="J55:J58"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="H51:H54"/>
-    <mergeCell ref="I59:I62"/>
-    <mergeCell ref="J59:J62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="I67:I70"/>
-    <mergeCell ref="J67:J70"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="I71:I74"/>
-    <mergeCell ref="J71:J74"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="H67:H70"/>
   </mergeCells>
   <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="148" priority="101" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="147" priority="102" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="146" priority="103" operator="equal">
+      <formula>"REVIEWED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="145" priority="104" operator="equal">
+      <formula>"IN REVIEW"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="144" priority="97" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="143" priority="98" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="142" priority="99" operator="equal">
+      <formula>"REVIEWED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="141" priority="100" operator="equal">
+      <formula>"IN REVIEW"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="140" priority="93" operator="equal">
+      <formula>"TO DO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="139" priority="94" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="138" priority="95" operator="equal">
+      <formula>"REVIEWED"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="137" priority="96" operator="equal">
+      <formula>"IN REVIEW"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
     <cfRule type="cellIs" dxfId="136" priority="89" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="H15">
     <cfRule type="cellIs" dxfId="135" priority="90" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="H15">
     <cfRule type="cellIs" dxfId="134" priority="91" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
+  <conditionalFormatting sqref="H15">
     <cfRule type="cellIs" dxfId="133" priority="92" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="H19">
     <cfRule type="cellIs" dxfId="132" priority="85" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="H19">
     <cfRule type="cellIs" dxfId="131" priority="86" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="H19">
     <cfRule type="cellIs" dxfId="130" priority="87" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="H19">
     <cfRule type="cellIs" dxfId="129" priority="88" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H23">
     <cfRule type="cellIs" dxfId="128" priority="81" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H23">
     <cfRule type="cellIs" dxfId="127" priority="82" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H23">
     <cfRule type="cellIs" dxfId="126" priority="83" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
+  <conditionalFormatting sqref="H23">
     <cfRule type="cellIs" dxfId="125" priority="84" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H27">
     <cfRule type="cellIs" dxfId="124" priority="77" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H27">
     <cfRule type="cellIs" dxfId="123" priority="78" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H27">
     <cfRule type="cellIs" dxfId="122" priority="79" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H27">
     <cfRule type="cellIs" dxfId="121" priority="80" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
+  <conditionalFormatting sqref="H31">
     <cfRule type="cellIs" dxfId="120" priority="73" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
+  <conditionalFormatting sqref="H31">
     <cfRule type="cellIs" dxfId="119" priority="74" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
+  <conditionalFormatting sqref="H31">
     <cfRule type="cellIs" dxfId="118" priority="75" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
+  <conditionalFormatting sqref="H31">
     <cfRule type="cellIs" dxfId="117" priority="76" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
+  <conditionalFormatting sqref="H35">
     <cfRule type="cellIs" dxfId="116" priority="69" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
+  <conditionalFormatting sqref="H35">
     <cfRule type="cellIs" dxfId="115" priority="70" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
+  <conditionalFormatting sqref="H35">
     <cfRule type="cellIs" dxfId="114" priority="71" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
+  <conditionalFormatting sqref="H35">
     <cfRule type="cellIs" dxfId="113" priority="72" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="112" priority="65" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="111" priority="66" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="110" priority="67" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="109" priority="68" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="H43">
     <cfRule type="cellIs" dxfId="108" priority="61" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="H43">
     <cfRule type="cellIs" dxfId="107" priority="62" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="H43">
     <cfRule type="cellIs" dxfId="106" priority="63" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
+  <conditionalFormatting sqref="H43">
     <cfRule type="cellIs" dxfId="105" priority="64" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
+  <conditionalFormatting sqref="H47">
     <cfRule type="cellIs" dxfId="104" priority="57" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
+  <conditionalFormatting sqref="H47">
     <cfRule type="cellIs" dxfId="103" priority="58" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
+  <conditionalFormatting sqref="H47">
     <cfRule type="cellIs" dxfId="102" priority="59" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
+  <conditionalFormatting sqref="H47">
     <cfRule type="cellIs" dxfId="101" priority="60" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="100" priority="53" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="99" priority="54" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="98" priority="55" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="97" priority="56" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="H55">
     <cfRule type="cellIs" dxfId="96" priority="49" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="H55">
     <cfRule type="cellIs" dxfId="95" priority="50" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="H55">
     <cfRule type="cellIs" dxfId="94" priority="51" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="H55">
     <cfRule type="cellIs" dxfId="93" priority="52" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
+  <conditionalFormatting sqref="H59">
     <cfRule type="cellIs" dxfId="92" priority="45" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
+  <conditionalFormatting sqref="H59">
     <cfRule type="cellIs" dxfId="91" priority="46" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
+  <conditionalFormatting sqref="H59">
     <cfRule type="cellIs" dxfId="90" priority="47" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
+  <conditionalFormatting sqref="H59">
     <cfRule type="cellIs" dxfId="89" priority="48" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
+  <conditionalFormatting sqref="H63">
     <cfRule type="cellIs" dxfId="88" priority="41" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
+  <conditionalFormatting sqref="H63">
     <cfRule type="cellIs" dxfId="87" priority="42" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
+  <conditionalFormatting sqref="H63">
     <cfRule type="cellIs" dxfId="86" priority="43" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
+  <conditionalFormatting sqref="H63">
     <cfRule type="cellIs" dxfId="85" priority="44" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
+  <conditionalFormatting sqref="H67">
     <cfRule type="cellIs" dxfId="84" priority="37" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
+  <conditionalFormatting sqref="H67">
     <cfRule type="cellIs" dxfId="83" priority="38" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
+  <conditionalFormatting sqref="H67">
     <cfRule type="cellIs" dxfId="82" priority="39" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
+  <conditionalFormatting sqref="H67">
     <cfRule type="cellIs" dxfId="81" priority="40" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H71">
     <cfRule type="cellIs" dxfId="80" priority="33" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H71">
     <cfRule type="cellIs" dxfId="79" priority="34" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H71">
     <cfRule type="cellIs" dxfId="78" priority="35" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H71">
     <cfRule type="cellIs" dxfId="77" priority="36" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
+  <conditionalFormatting sqref="H75">
     <cfRule type="cellIs" dxfId="76" priority="29" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
+  <conditionalFormatting sqref="H75">
     <cfRule type="cellIs" dxfId="75" priority="30" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
+  <conditionalFormatting sqref="H75">
     <cfRule type="cellIs" dxfId="74" priority="31" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
+  <conditionalFormatting sqref="H75">
     <cfRule type="cellIs" dxfId="73" priority="32" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
+  <conditionalFormatting sqref="H79">
     <cfRule type="cellIs" dxfId="72" priority="25" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
+  <conditionalFormatting sqref="H79">
     <cfRule type="cellIs" dxfId="71" priority="26" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
+  <conditionalFormatting sqref="H79">
     <cfRule type="cellIs" dxfId="70" priority="27" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
+  <conditionalFormatting sqref="H79">
     <cfRule type="cellIs" dxfId="69" priority="28" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
+  <conditionalFormatting sqref="H83">
     <cfRule type="cellIs" dxfId="68" priority="21" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
+  <conditionalFormatting sqref="H83">
     <cfRule type="cellIs" dxfId="67" priority="22" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
+  <conditionalFormatting sqref="H83">
     <cfRule type="cellIs" dxfId="66" priority="23" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
+  <conditionalFormatting sqref="H83">
     <cfRule type="cellIs" dxfId="65" priority="24" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+  <conditionalFormatting sqref="H87">
+    <cfRule type="cellIs" dxfId="64" priority="17" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+  <conditionalFormatting sqref="H87">
+    <cfRule type="cellIs" dxfId="63" priority="18" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+  <conditionalFormatting sqref="H87">
+    <cfRule type="cellIs" dxfId="62" priority="19" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+  <conditionalFormatting sqref="H87">
+    <cfRule type="cellIs" dxfId="61" priority="20" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+  <conditionalFormatting sqref="H91">
+    <cfRule type="cellIs" dxfId="60" priority="13" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+  <conditionalFormatting sqref="H91">
+    <cfRule type="cellIs" dxfId="59" priority="14" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+  <conditionalFormatting sqref="H91">
+    <cfRule type="cellIs" dxfId="58" priority="15" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+  <conditionalFormatting sqref="H91">
+    <cfRule type="cellIs" dxfId="57" priority="16" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
+  <conditionalFormatting sqref="H95">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
+  <conditionalFormatting sqref="H95">
     <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
+  <conditionalFormatting sqref="H95">
     <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
+  <conditionalFormatting sqref="H95">
     <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
+  <conditionalFormatting sqref="H99">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
+  <conditionalFormatting sqref="H99">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
+  <conditionalFormatting sqref="H99">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
+  <conditionalFormatting sqref="H99">
     <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H91">
+  <conditionalFormatting sqref="H103">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H91">
+  <conditionalFormatting sqref="H103">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H91">
+  <conditionalFormatting sqref="H103">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"REVIEWED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H91">
+  <conditionalFormatting sqref="H103">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"IN REVIEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="J3 J7 J11 J15 J19 J23 J27 J31 J35 J39 J43 J47 J51 J55 J59 J63 J67 J71 J75 J79 J83 J87 J91" xr:uid="{04CF7CF5-A936-4828-AB3D-B5AC4235512F}">
+    <dataValidation type="list" allowBlank="1" sqref="J3 J7 J11 J15 J19 J23 J27 J31 J35 J39 J43 J47 J51 J55 J59 J63 J67 J71 J75 J79 J83 J87 J91 J95 J99 J103" xr:uid="{04CF7CF5-A936-4828-AB3D-B5AC4235512F}">
       <formula1>"Smoke,Regresión"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H3 H7 H11 H15 H19 H23 H27 H31 H35 H39 H43 H47 H51 H55 H59 H63 H67 H71 H75 H79 H83 H87 H91" xr:uid="{6C643EC8-0787-4008-8FB6-C5D7D5716A6E}">
+    <dataValidation type="list" allowBlank="1" sqref="H3 H7 H11 H15 H19 H23 H27 H31 H35 H39 H43 H47 H51 H55 H59 H63 H67 H71 H75 H79 H83 H87 H91 H95 H99 H103" xr:uid="{6C643EC8-0787-4008-8FB6-C5D7D5716A6E}">
       <formula1>"TO DO,In Progress,In Review,Reviewed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4561,10 +5031,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BDA17D-422A-4EDE-85C9-6E76BE29C348}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4789,184 +5259,304 @@
       </c>
       <c r="E16" s="12"/>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="24">
+        <v>45554</v>
+      </c>
+      <c r="B17" s="23">
+        <v>18</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="24">
+        <v>45554</v>
+      </c>
+      <c r="B18" s="23">
+        <v>19</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="24">
+        <v>45554</v>
+      </c>
+      <c r="B19" s="23">
+        <v>20</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="24">
+        <v>45554</v>
+      </c>
+      <c r="B20" s="23">
+        <v>21</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="24">
+        <v>45554</v>
+      </c>
+      <c r="B21" s="23">
+        <v>22</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="24">
+        <v>45554</v>
+      </c>
+      <c r="B22" s="23">
+        <v>23</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="24">
+        <v>45554</v>
+      </c>
+      <c r="B23" s="23">
+        <v>24</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="24">
+        <v>45554</v>
+      </c>
+      <c r="B24" s="23">
+        <v>25</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="12"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C10">
-    <cfRule type="cellIs" dxfId="64" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="31" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C10">
-    <cfRule type="cellIs" dxfId="63" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="32" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C10">
-    <cfRule type="cellIs" dxfId="62" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="33" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C10">
-    <cfRule type="cellIs" dxfId="61" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="34" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C10">
-    <cfRule type="cellIs" dxfId="60" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="35" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="59" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="26" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="58" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="27" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="57" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="28" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="56" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="29" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="55" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="30" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="54" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="21" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="53" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="22" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="52" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="23" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="51" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="24" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="50" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="25" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="49" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="16" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="48" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="17" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="47" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="18" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="46" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="19" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="45" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="20" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="44" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="11" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="43" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="12" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="42" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="13" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="41" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="14" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="40" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="15" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="10" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
+  <conditionalFormatting sqref="C16:C24">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+  <conditionalFormatting sqref="C16:C24">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
+  <conditionalFormatting sqref="C16:C24">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+  <conditionalFormatting sqref="C16:C24">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
+  <conditionalFormatting sqref="C16:C24">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C16" xr:uid="{98599A04-DCD3-4301-8166-C91591A69F4C}">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C24" xr:uid="{98599A04-DCD3-4301-8166-C91591A69F4C}">
       <formula1>"TO DO,IN PROGRESS,DEPRECATED,FAIL,PASSED"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4976,10 +5566,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7131E811-891E-459F-8BA5-DF2089E7CB98}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5069,59 +5659,150 @@
       </c>
       <c r="E7" s="12"/>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>45554</v>
+      </c>
+      <c r="B8" s="22">
+        <v>14</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>45554</v>
+      </c>
+      <c r="B9" s="22">
+        <v>16</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>45554</v>
+      </c>
+      <c r="B10" s="22">
+        <v>17</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>45554</v>
+      </c>
+      <c r="B11" s="22">
+        <v>18</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>45554</v>
+      </c>
+      <c r="B12" s="22">
+        <v>20</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>45554</v>
+      </c>
+      <c r="B13" s="22">
+        <v>25</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="12"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="C4:C6">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C6">
-    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C6">
-    <cfRule type="cellIs" dxfId="27" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C6">
-    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C6">
-    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+  <conditionalFormatting sqref="C7:C13">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"TO DO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+  <conditionalFormatting sqref="C7:C13">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+  <conditionalFormatting sqref="C7:C13">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"DEPRECATED"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+  <conditionalFormatting sqref="C7:C13">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+  <conditionalFormatting sqref="C7:C13">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C7" xr:uid="{14F66130-C99F-497B-8C73-12B97998AB87}">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C13" xr:uid="{14F66130-C99F-497B-8C73-12B97998AB87}">
       <formula1>"TO DO,IN PROGRESS,DEPRECATED,FAIL,PASSED"</formula1>
     </dataValidation>
   </dataValidations>
